--- a/Code/Results/Cases/Case_3_141/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_141/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.008698496193599</v>
+        <v>1.040076637849155</v>
       </c>
       <c r="D2">
-        <v>1.022515880314198</v>
+        <v>1.041324372107741</v>
       </c>
       <c r="E2">
-        <v>1.013716754062952</v>
+        <v>1.038499969606129</v>
       </c>
       <c r="F2">
-        <v>0.968621590502144</v>
+        <v>1.044211778545213</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042343712166656</v>
+        <v>1.039955480000692</v>
       </c>
       <c r="J2">
-        <v>1.030622113365615</v>
+        <v>1.045165198421545</v>
       </c>
       <c r="K2">
-        <v>1.033670198066245</v>
+        <v>1.044104209149681</v>
       </c>
       <c r="L2">
-        <v>1.024988243872896</v>
+        <v>1.04128782659133</v>
       </c>
       <c r="M2">
-        <v>0.980536105356868</v>
+        <v>1.046983465405821</v>
       </c>
       <c r="N2">
-        <v>1.032085714980603</v>
+        <v>1.046649452885428</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.014276377489657</v>
+        <v>1.041187323421269</v>
       </c>
       <c r="D3">
-        <v>1.026689138971562</v>
+        <v>1.042163992862165</v>
       </c>
       <c r="E3">
-        <v>1.018272670482</v>
+        <v>1.039450367936969</v>
       </c>
       <c r="F3">
-        <v>0.9808416097070692</v>
+        <v>1.046489524004359</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.0445552271564</v>
+        <v>1.040317008443732</v>
       </c>
       <c r="J3">
-        <v>1.034385277997125</v>
+        <v>1.045920547586684</v>
       </c>
       <c r="K3">
-        <v>1.036991546702081</v>
+        <v>1.044754358160209</v>
       </c>
       <c r="L3">
-        <v>1.028676967970999</v>
+        <v>1.042047880168505</v>
       </c>
       <c r="M3">
-        <v>0.9917256403595481</v>
+        <v>1.049068579795246</v>
       </c>
       <c r="N3">
-        <v>1.035854223737531</v>
+        <v>1.04740587473302</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.017788655787794</v>
+        <v>1.04190552382056</v>
       </c>
       <c r="D4">
-        <v>1.029317379253952</v>
+        <v>1.042706768362343</v>
       </c>
       <c r="E4">
-        <v>1.02114671741918</v>
+        <v>1.04006521637119</v>
       </c>
       <c r="F4">
-        <v>0.9883989212732883</v>
+        <v>1.047957756210611</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045930560259898</v>
+        <v>1.040549216918442</v>
       </c>
       <c r="J4">
-        <v>1.036748017793818</v>
+        <v>1.046408272725401</v>
       </c>
       <c r="K4">
-        <v>1.039074391111773</v>
+        <v>1.045173889816304</v>
       </c>
       <c r="L4">
-        <v>1.030996447527796</v>
+        <v>1.042538943838069</v>
       </c>
       <c r="M4">
-        <v>0.9986394074728695</v>
+        <v>1.050411852393241</v>
       </c>
       <c r="N4">
-        <v>1.038220318895745</v>
+        <v>1.047894292497378</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.019243241203189</v>
+        <v>1.042207341237998</v>
       </c>
       <c r="D5">
-        <v>1.030405944435104</v>
+        <v>1.042934829546342</v>
       </c>
       <c r="E5">
-        <v>1.022338205446721</v>
+        <v>1.04032367088048</v>
       </c>
       <c r="F5">
-        <v>0.9914995253327732</v>
+        <v>1.048573689310993</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046496149020809</v>
+        <v>1.040646426590012</v>
       </c>
       <c r="J5">
-        <v>1.037724915525341</v>
+        <v>1.046613066289942</v>
       </c>
       <c r="K5">
-        <v>1.039934981735408</v>
+        <v>1.045349985516798</v>
       </c>
       <c r="L5">
-        <v>1.031956266716362</v>
+        <v>1.042745211104521</v>
       </c>
       <c r="M5">
-        <v>1.001474431610153</v>
+        <v>1.050975174913558</v>
       </c>
       <c r="N5">
-        <v>1.039198603934098</v>
+        <v>1.048099376892271</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.019486217706445</v>
+        <v>1.042258011100427</v>
       </c>
       <c r="D6">
-        <v>1.030587785810353</v>
+        <v>1.042973114939219</v>
       </c>
       <c r="E6">
-        <v>1.022537304250262</v>
+        <v>1.04036706494821</v>
       </c>
       <c r="F6">
-        <v>0.9920158375821627</v>
+        <v>1.04867703124994</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046590394448534</v>
+        <v>1.04066272449428</v>
       </c>
       <c r="J6">
-        <v>1.037888003982847</v>
+        <v>1.046647437657733</v>
       </c>
       <c r="K6">
-        <v>1.040078619497086</v>
+        <v>1.045379536663609</v>
       </c>
       <c r="L6">
-        <v>1.032116550797977</v>
+        <v>1.042779834019955</v>
       </c>
       <c r="M6">
-        <v>1.001946427217511</v>
+        <v>1.051069678690479</v>
       </c>
       <c r="N6">
-        <v>1.039361923995921</v>
+        <v>1.048133797071346</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.017808176826375</v>
+        <v>1.041909557163746</v>
       </c>
       <c r="D7">
-        <v>1.029331987796709</v>
+        <v>1.042709816202368</v>
       </c>
       <c r="E7">
-        <v>1.02116270282628</v>
+        <v>1.040068669959577</v>
       </c>
       <c r="F7">
-        <v>0.9884406433969757</v>
+        <v>1.047965991447241</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045938166302098</v>
+        <v>1.040550517449898</v>
       </c>
       <c r="J7">
-        <v>1.036761134452725</v>
+        <v>1.046411010150987</v>
       </c>
       <c r="K7">
-        <v>1.039085948414633</v>
+        <v>1.045176243895057</v>
       </c>
       <c r="L7">
-        <v>1.031009331710693</v>
+        <v>1.042541700679978</v>
       </c>
       <c r="M7">
-        <v>0.9986775621184539</v>
+        <v>1.050419384952543</v>
       </c>
       <c r="N7">
-        <v>1.038233454181812</v>
+        <v>1.047897033810421</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.010604435412823</v>
+        <v>1.040452101777686</v>
       </c>
       <c r="D8">
-        <v>1.023941776045814</v>
+        <v>1.04160823360937</v>
       </c>
       <c r="E8">
-        <v>1.01527235204071</v>
+        <v>1.038821187599478</v>
       </c>
       <c r="F8">
-        <v>0.9728285606815189</v>
+        <v>1.044982737870743</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043103094431466</v>
+        <v>1.040078018595855</v>
       </c>
       <c r="J8">
-        <v>1.03190943463922</v>
+        <v>1.045420687992709</v>
       </c>
       <c r="K8">
-        <v>1.034806919922561</v>
+        <v>1.044324171008278</v>
       </c>
       <c r="L8">
-        <v>1.026249348390621</v>
+        <v>1.04154484488222</v>
       </c>
       <c r="M8">
-        <v>0.9843896147178042</v>
+        <v>1.047689387878882</v>
       </c>
       <c r="N8">
-        <v>1.033374864398074</v>
+        <v>1.046905305281088</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9971045289667777</v>
+        <v>1.03788002500426</v>
       </c>
       <c r="D9">
-        <v>1.0138435964228</v>
+        <v>1.03966307897578</v>
       </c>
       <c r="E9">
-        <v>1.004278575856838</v>
+        <v>1.036621948497621</v>
       </c>
       <c r="F9">
-        <v>0.9422441671673401</v>
+        <v>1.039681268108246</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037642980408453</v>
+        <v>1.039232111189705</v>
       </c>
       <c r="J9">
-        <v>1.022759949739836</v>
+        <v>1.043667585701017</v>
       </c>
       <c r="K9">
-        <v>1.026715993970569</v>
+        <v>1.042813753439985</v>
       </c>
       <c r="L9">
-        <v>1.017302615478877</v>
+        <v>1.039782498733305</v>
       </c>
       <c r="M9">
-        <v>0.956349372118636</v>
+        <v>1.042831883695422</v>
       </c>
       <c r="N9">
-        <v>1.024212386180673</v>
+        <v>1.045149713383058</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9874593874738203</v>
+        <v>1.036162542505394</v>
       </c>
       <c r="D10">
-        <v>1.006629483523986</v>
+        <v>1.038363488114897</v>
       </c>
       <c r="E10">
-        <v>0.9964576397785254</v>
+        <v>1.035154997047915</v>
       </c>
       <c r="F10">
-        <v>0.9190891952282614</v>
+        <v>1.036114796716072</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033626102993892</v>
+        <v>1.038659091595444</v>
       </c>
       <c r="J10">
-        <v>1.0161795496455</v>
+        <v>1.042493321584806</v>
       </c>
       <c r="K10">
-        <v>1.020880063437047</v>
+        <v>1.041800663424219</v>
       </c>
       <c r="L10">
-        <v>1.010891148544974</v>
+        <v>1.038603617437449</v>
       </c>
       <c r="M10">
-        <v>0.9350910027790291</v>
+        <v>1.039559985185463</v>
       </c>
       <c r="N10">
-        <v>1.01762264116342</v>
+        <v>1.043973781677112</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.98310095687746</v>
+        <v>1.035418158047441</v>
       </c>
       <c r="D11">
-        <v>1.003368885034309</v>
+        <v>1.037800054986999</v>
       </c>
       <c r="E11">
-        <v>0.9929322018566393</v>
+        <v>1.03451957745557</v>
       </c>
       <c r="F11">
-        <v>0.9081888180801317</v>
+        <v>1.034562358698917</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031778273645138</v>
+        <v>1.038408782638255</v>
       </c>
       <c r="J11">
-        <v>1.013194055244458</v>
+        <v>1.041983510366109</v>
       </c>
       <c r="K11">
-        <v>1.018227547545124</v>
+        <v>1.0413604982412</v>
       </c>
       <c r="L11">
-        <v>1.007988648809563</v>
+        <v>1.038092177874056</v>
       </c>
       <c r="M11">
-        <v>0.9250780262886121</v>
+        <v>1.038134800024821</v>
       </c>
       <c r="N11">
-        <v>1.014632907017888</v>
+        <v>1.043463246468008</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9814516160745278</v>
+        <v>1.03514155130806</v>
       </c>
       <c r="D12">
-        <v>1.002134757367325</v>
+        <v>1.03759066297951</v>
       </c>
       <c r="E12">
-        <v>0.9915994406350634</v>
+        <v>1.03428351896046</v>
       </c>
       <c r="F12">
-        <v>0.903983203852186</v>
+        <v>1.033984449858918</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031073476545468</v>
+        <v>1.038315475297466</v>
       </c>
       <c r="J12">
-        <v>1.012062263432651</v>
+        <v>1.041793938654699</v>
       </c>
       <c r="K12">
-        <v>1.017221172759174</v>
+        <v>1.041196774792648</v>
       </c>
       <c r="L12">
-        <v>1.006889371400327</v>
+        <v>1.037902057433077</v>
       </c>
       <c r="M12">
-        <v>0.9212141624426928</v>
+        <v>1.03760411643116</v>
       </c>
       <c r="N12">
-        <v>1.013499507931889</v>
+        <v>1.043273405543024</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9818068387956986</v>
+        <v>1.035200889392229</v>
       </c>
       <c r="D13">
-        <v>1.002400567944929</v>
+        <v>1.037635583196279</v>
       </c>
       <c r="E13">
-        <v>0.9918864189786721</v>
+        <v>1.034334155947195</v>
       </c>
       <c r="F13">
-        <v>0.9048929060603937</v>
+        <v>1.034108471165389</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03122553224642</v>
+        <v>1.038335505082618</v>
       </c>
       <c r="J13">
-        <v>1.012306114996838</v>
+        <v>1.041834611757148</v>
       </c>
       <c r="K13">
-        <v>1.017438041057958</v>
+        <v>1.041231904319524</v>
       </c>
       <c r="L13">
-        <v>1.007126168253613</v>
+        <v>1.037942845694582</v>
       </c>
       <c r="M13">
-        <v>0.9220499664755369</v>
+        <v>1.037718009622812</v>
       </c>
       <c r="N13">
-        <v>1.013743705793267</v>
+        <v>1.043314136405943</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9829652626893687</v>
+        <v>1.035395295896666</v>
       </c>
       <c r="D14">
-        <v>1.003267356895323</v>
+        <v>1.037782748792849</v>
       </c>
       <c r="E14">
-        <v>0.9928225255132541</v>
+        <v>1.0345000655218</v>
       </c>
       <c r="F14">
-        <v>0.907844551972651</v>
+        <v>1.034514614612179</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031720405181343</v>
+        <v>1.038401076602039</v>
       </c>
       <c r="J14">
-        <v>1.013100982862385</v>
+        <v>1.041967844509817</v>
       </c>
       <c r="K14">
-        <v>1.018144805935806</v>
+        <v>1.04134696944545</v>
       </c>
       <c r="L14">
-        <v>1.007898228275335</v>
+        <v>1.038076465512744</v>
       </c>
       <c r="M14">
-        <v>0.9247617468247001</v>
+        <v>1.038090960434683</v>
       </c>
       <c r="N14">
-        <v>1.014539702462357</v>
+        <v>1.043447558364403</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9836748709626689</v>
+        <v>1.035515061581761</v>
       </c>
       <c r="D15">
-        <v>1.003798284481785</v>
+        <v>1.037873408008207</v>
       </c>
       <c r="E15">
-        <v>0.9933961296365275</v>
+        <v>1.0346022831297</v>
       </c>
       <c r="F15">
-        <v>0.9096415026896348</v>
+        <v>1.034764684187993</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03202279739825</v>
+        <v>1.038441433375256</v>
       </c>
       <c r="J15">
-        <v>1.013587618886142</v>
+        <v>1.042049906342115</v>
       </c>
       <c r="K15">
-        <v>1.018577393018363</v>
+        <v>1.041417834775916</v>
       </c>
       <c r="L15">
-        <v>1.008371042253646</v>
+        <v>1.038158773275542</v>
       </c>
       <c r="M15">
-        <v>0.9264125927780937</v>
+        <v>1.038320573434893</v>
       </c>
       <c r="N15">
-        <v>1.015027029565085</v>
+        <v>1.043529736733915</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9877445586128618</v>
+        <v>1.036211929731985</v>
       </c>
       <c r="D16">
-        <v>1.006842799790278</v>
+        <v>1.03840086632527</v>
       </c>
       <c r="E16">
-        <v>0.9966884923928013</v>
+        <v>1.03519716292251</v>
       </c>
       <c r="F16">
-        <v>0.9197921947010478</v>
+        <v>1.036217651968789</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033746281446161</v>
+        <v>1.03867565744883</v>
       </c>
       <c r="J16">
-        <v>1.016374626504449</v>
+        <v>1.042527127461795</v>
       </c>
       <c r="K16">
-        <v>1.021053276773854</v>
+        <v>1.041829844116172</v>
       </c>
       <c r="L16">
-        <v>1.011080941250379</v>
+        <v>1.038637539229849</v>
       </c>
       <c r="M16">
-        <v>0.9357366747843632</v>
+        <v>1.03965438902154</v>
       </c>
       <c r="N16">
-        <v>1.017817995053884</v>
+        <v>1.044007635562324</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9902466500424363</v>
+        <v>1.036648865947264</v>
       </c>
       <c r="D17">
-        <v>1.00871434935815</v>
+        <v>1.038731537422954</v>
       </c>
       <c r="E17">
-        <v>0.9987149794999478</v>
+        <v>1.03557025479105</v>
       </c>
       <c r="F17">
-        <v>0.9259096454204138</v>
+        <v>1.037126853271912</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034796983305722</v>
+        <v>1.038821992372419</v>
       </c>
       <c r="J17">
-        <v>1.018084864460653</v>
+        <v>1.042826113085447</v>
       </c>
       <c r="K17">
-        <v>1.022571290429614</v>
+        <v>1.042087885837799</v>
       </c>
       <c r="L17">
-        <v>1.012745577357174</v>
+        <v>1.038937593463384</v>
       </c>
       <c r="M17">
-        <v>0.9413546823030617</v>
+        <v>1.040488771182284</v>
       </c>
       <c r="N17">
-        <v>1.019530661744153</v>
+        <v>1.044307045779855</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9916887521731403</v>
+        <v>1.036903655844724</v>
       </c>
       <c r="D18">
-        <v>1.009792978694234</v>
+        <v>1.038924344743001</v>
       </c>
       <c r="E18">
-        <v>0.9998837754742125</v>
+        <v>1.035787851905792</v>
       </c>
       <c r="F18">
-        <v>0.9293955466805652</v>
+        <v>1.037656393256456</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035399539315711</v>
+        <v>1.038907136167319</v>
       </c>
       <c r="J18">
-        <v>1.019069467743312</v>
+        <v>1.043000376553298</v>
       </c>
       <c r="K18">
-        <v>1.023444786828088</v>
+        <v>1.04223825357136</v>
       </c>
       <c r="L18">
-        <v>1.01370451540645</v>
+        <v>1.039112515996069</v>
       </c>
       <c r="M18">
-        <v>0.9445554737915691</v>
+        <v>1.040974641371489</v>
       </c>
       <c r="N18">
-        <v>1.02051666327641</v>
+        <v>1.044481556721819</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9921776166031784</v>
+        <v>1.036990521254968</v>
       </c>
       <c r="D19">
-        <v>1.010158621568712</v>
+        <v>1.038990075673603</v>
       </c>
       <c r="E19">
-        <v>1.000280126889826</v>
+        <v>1.035862043395754</v>
       </c>
       <c r="F19">
-        <v>0.9305708475127864</v>
+        <v>1.037836821381431</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035603304651766</v>
+        <v>1.038936132313426</v>
       </c>
       <c r="J19">
-        <v>1.019403059886293</v>
+        <v>1.043059773959926</v>
       </c>
       <c r="K19">
-        <v>1.023740662500337</v>
+        <v>1.042289500795983</v>
       </c>
       <c r="L19">
-        <v>1.014029509253149</v>
+        <v>1.039172144181234</v>
       </c>
       <c r="M19">
-        <v>0.9456345558937116</v>
+        <v>1.041140174212024</v>
       </c>
       <c r="N19">
-        <v>1.020850729158497</v>
+        <v>1.044541038479577</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9899800116154708</v>
+        <v>1.036601993844994</v>
       </c>
       <c r="D20">
-        <v>1.008514911786401</v>
+        <v>1.038696066546898</v>
       </c>
       <c r="E20">
-        <v>0.9984989396172896</v>
+        <v>1.035530227759684</v>
       </c>
       <c r="F20">
-        <v>0.9252619747302343</v>
+        <v>1.037029385742117</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034685332113676</v>
+        <v>1.0388063138534</v>
       </c>
       <c r="J20">
-        <v>1.017902727162463</v>
+        <v>1.042794048202028</v>
       </c>
       <c r="K20">
-        <v>1.022409671118504</v>
+        <v>1.042060215278787</v>
       </c>
       <c r="L20">
-        <v>1.012568234814449</v>
+        <v>1.038905410226368</v>
       </c>
       <c r="M20">
-        <v>0.9407599413280275</v>
+        <v>1.040399334023512</v>
       </c>
       <c r="N20">
-        <v>1.019348265790108</v>
+        <v>1.044274935360625</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9826250036584036</v>
+        <v>1.03533805107009</v>
       </c>
       <c r="D21">
-        <v>1.003012766380502</v>
+        <v>1.037739415189841</v>
       </c>
       <c r="E21">
-        <v>0.9925475292793371</v>
+        <v>1.034451210282449</v>
       </c>
       <c r="F21">
-        <v>0.9069799343348932</v>
+        <v>1.034395050733584</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031575206102957</v>
+        <v>1.038381776596029</v>
       </c>
       <c r="J21">
-        <v>1.012867566760915</v>
+        <v>1.041928616469592</v>
       </c>
       <c r="K21">
-        <v>1.017937284899242</v>
+        <v>1.041313091907189</v>
       </c>
       <c r="L21">
-        <v>1.007671480014793</v>
+        <v>1.038037121939366</v>
       </c>
       <c r="M21">
-        <v>0.9239674077703218</v>
+        <v>1.037981172099951</v>
       </c>
       <c r="N21">
-        <v>1.014305954883249</v>
+        <v>1.043408274615861</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.977822526498952</v>
+        <v>1.034542726436106</v>
       </c>
       <c r="D22">
-        <v>0.9994186322645261</v>
+        <v>1.037137305242152</v>
       </c>
       <c r="E22">
-        <v>0.9886694750988427</v>
+        <v>1.033772583363473</v>
       </c>
       <c r="F22">
-        <v>0.8945596891583792</v>
+        <v>1.03273140370623</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02951160419087</v>
+        <v>1.038112934100528</v>
       </c>
       <c r="J22">
-        <v>1.00956794364557</v>
+        <v>1.041383297005832</v>
       </c>
       <c r="K22">
-        <v>1.015001614967584</v>
+        <v>1.04084203401678</v>
       </c>
       <c r="L22">
-        <v>1.00446878388488</v>
+        <v>1.037490331275426</v>
       </c>
       <c r="M22">
-        <v>0.9125555001360207</v>
+        <v>1.036453199345005</v>
       </c>
       <c r="N22">
-        <v>1.011001645924609</v>
+        <v>1.042862180735914</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9803865058138117</v>
+        <v>1.03496440433654</v>
       </c>
       <c r="D23">
-        <v>1.001337694798674</v>
+        <v>1.037456555211474</v>
       </c>
       <c r="E23">
-        <v>0.9907391581547774</v>
+        <v>1.03413235662877</v>
       </c>
       <c r="F23">
-        <v>0.9012422796435756</v>
+        <v>1.033614044207692</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030616677591216</v>
+        <v>1.038255635438455</v>
       </c>
       <c r="J23">
-        <v>1.011330777000267</v>
+        <v>1.04167249472397</v>
       </c>
       <c r="K23">
-        <v>1.016570499930432</v>
+        <v>1.04109187592757</v>
       </c>
       <c r="L23">
-        <v>1.006179210324056</v>
+        <v>1.037780277985531</v>
       </c>
       <c r="M23">
-        <v>0.918695818280677</v>
+        <v>1.037263938365725</v>
       </c>
       <c r="N23">
-        <v>1.012766982704869</v>
+        <v>1.043151789147983</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9901005473596157</v>
+        <v>1.036623173539706</v>
       </c>
       <c r="D24">
-        <v>1.008605069079947</v>
+        <v>1.038712094517966</v>
       </c>
       <c r="E24">
-        <v>0.9985965994201539</v>
+        <v>1.035548314317663</v>
       </c>
       <c r="F24">
-        <v>0.9255548817446714</v>
+        <v>1.037073429537284</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034735814158587</v>
+        <v>1.038813398952981</v>
       </c>
       <c r="J24">
-        <v>1.017985067011442</v>
+        <v>1.042808537343936</v>
       </c>
       <c r="K24">
-        <v>1.022482736648031</v>
+        <v>1.042072718857397</v>
       </c>
       <c r="L24">
-        <v>1.012648405249964</v>
+        <v>1.038919952736687</v>
       </c>
       <c r="M24">
-        <v>0.9410289126590354</v>
+        <v>1.040439749329574</v>
       </c>
       <c r="N24">
-        <v>1.019430722571118</v>
+        <v>1.044289445078776</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.000699789574554</v>
+        <v>1.038545442926084</v>
       </c>
       <c r="D25">
-        <v>1.016532636774635</v>
+        <v>1.040166436745428</v>
       </c>
       <c r="E25">
-        <v>1.007200893141264</v>
+        <v>1.037190635983209</v>
       </c>
       <c r="F25">
-        <v>0.9505779414439649</v>
+        <v>1.041057331665773</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039115512878509</v>
+        <v>1.039452389025458</v>
       </c>
       <c r="J25">
-        <v>1.025203625937995</v>
+        <v>1.044121769436275</v>
       </c>
       <c r="K25">
-        <v>1.028879613620817</v>
+        <v>1.04320530649318</v>
       </c>
       <c r="L25">
-        <v>1.019688443593113</v>
+        <v>1.040238801297047</v>
       </c>
       <c r="M25">
-        <v>0.9639951954617763</v>
+        <v>1.044093429798098</v>
       </c>
       <c r="N25">
-        <v>1.026659532679327</v>
+        <v>1.045604542111316</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_141/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_141/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.040076637849155</v>
+        <v>1.008698496193598</v>
       </c>
       <c r="D2">
-        <v>1.041324372107741</v>
+        <v>1.022515880314197</v>
       </c>
       <c r="E2">
-        <v>1.038499969606129</v>
+        <v>1.013716754062952</v>
       </c>
       <c r="F2">
-        <v>1.044211778545213</v>
+        <v>0.9686215905021429</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039955480000692</v>
+        <v>1.042343712166656</v>
       </c>
       <c r="J2">
-        <v>1.045165198421545</v>
+        <v>1.030622113365614</v>
       </c>
       <c r="K2">
-        <v>1.044104209149681</v>
+        <v>1.033670198066245</v>
       </c>
       <c r="L2">
-        <v>1.04128782659133</v>
+        <v>1.024988243872895</v>
       </c>
       <c r="M2">
-        <v>1.046983465405821</v>
+        <v>0.9805361053568669</v>
       </c>
       <c r="N2">
-        <v>1.046649452885428</v>
+        <v>1.032085714980602</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.041187323421269</v>
+        <v>1.014276377489656</v>
       </c>
       <c r="D3">
-        <v>1.042163992862165</v>
+        <v>1.026689138971562</v>
       </c>
       <c r="E3">
-        <v>1.039450367936969</v>
+        <v>1.018272670481999</v>
       </c>
       <c r="F3">
-        <v>1.046489524004359</v>
+        <v>0.9808416097070678</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040317008443732</v>
+        <v>1.0445552271564</v>
       </c>
       <c r="J3">
-        <v>1.045920547586684</v>
+        <v>1.034385277997124</v>
       </c>
       <c r="K3">
-        <v>1.044754358160209</v>
+        <v>1.03699154670208</v>
       </c>
       <c r="L3">
-        <v>1.042047880168505</v>
+        <v>1.028676967970998</v>
       </c>
       <c r="M3">
-        <v>1.049068579795246</v>
+        <v>0.9917256403595468</v>
       </c>
       <c r="N3">
-        <v>1.04740587473302</v>
+        <v>1.03585422373753</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.04190552382056</v>
+        <v>1.017788655787794</v>
       </c>
       <c r="D4">
-        <v>1.042706768362343</v>
+        <v>1.029317379253952</v>
       </c>
       <c r="E4">
-        <v>1.04006521637119</v>
+        <v>1.021146717419181</v>
       </c>
       <c r="F4">
-        <v>1.047957756210611</v>
+        <v>0.9883989212732894</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040549216918442</v>
+        <v>1.045930560259898</v>
       </c>
       <c r="J4">
-        <v>1.046408272725401</v>
+        <v>1.036748017793819</v>
       </c>
       <c r="K4">
-        <v>1.045173889816304</v>
+        <v>1.039074391111773</v>
       </c>
       <c r="L4">
-        <v>1.042538943838069</v>
+        <v>1.030996447527796</v>
       </c>
       <c r="M4">
-        <v>1.050411852393241</v>
+        <v>0.9986394074728705</v>
       </c>
       <c r="N4">
-        <v>1.047894292497378</v>
+        <v>1.038220318895746</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.042207341237998</v>
+        <v>1.019243241203188</v>
       </c>
       <c r="D5">
-        <v>1.042934829546342</v>
+        <v>1.030405944435104</v>
       </c>
       <c r="E5">
-        <v>1.04032367088048</v>
+        <v>1.02233820544672</v>
       </c>
       <c r="F5">
-        <v>1.048573689310993</v>
+        <v>0.9914995253327726</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040646426590012</v>
+        <v>1.046496149020809</v>
       </c>
       <c r="J5">
-        <v>1.046613066289942</v>
+        <v>1.03772491552534</v>
       </c>
       <c r="K5">
-        <v>1.045349985516798</v>
+        <v>1.039934981735408</v>
       </c>
       <c r="L5">
-        <v>1.042745211104521</v>
+        <v>1.031956266716361</v>
       </c>
       <c r="M5">
-        <v>1.050975174913558</v>
+        <v>1.001474431610152</v>
       </c>
       <c r="N5">
-        <v>1.048099376892271</v>
+        <v>1.039198603934097</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.042258011100427</v>
+        <v>1.019486217706445</v>
       </c>
       <c r="D6">
-        <v>1.042973114939219</v>
+        <v>1.030587785810353</v>
       </c>
       <c r="E6">
-        <v>1.04036706494821</v>
+        <v>1.022537304250261</v>
       </c>
       <c r="F6">
-        <v>1.04867703124994</v>
+        <v>0.9920158375821632</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04066272449428</v>
+        <v>1.046590394448534</v>
       </c>
       <c r="J6">
-        <v>1.046647437657733</v>
+        <v>1.037888003982847</v>
       </c>
       <c r="K6">
-        <v>1.045379536663609</v>
+        <v>1.040078619497086</v>
       </c>
       <c r="L6">
-        <v>1.042779834019955</v>
+        <v>1.032116550797977</v>
       </c>
       <c r="M6">
-        <v>1.051069678690479</v>
+        <v>1.001946427217512</v>
       </c>
       <c r="N6">
-        <v>1.048133797071346</v>
+        <v>1.03936192399592</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.041909557163746</v>
+        <v>1.017808176826374</v>
       </c>
       <c r="D7">
-        <v>1.042709816202368</v>
+        <v>1.029331987796708</v>
       </c>
       <c r="E7">
-        <v>1.040068669959577</v>
+        <v>1.021162702826279</v>
       </c>
       <c r="F7">
-        <v>1.047965991447241</v>
+        <v>0.9884406433969759</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040550517449898</v>
+        <v>1.045938166302098</v>
       </c>
       <c r="J7">
-        <v>1.046411010150987</v>
+        <v>1.036761134452724</v>
       </c>
       <c r="K7">
-        <v>1.045176243895057</v>
+        <v>1.039085948414632</v>
       </c>
       <c r="L7">
-        <v>1.042541700679978</v>
+        <v>1.031009331710692</v>
       </c>
       <c r="M7">
-        <v>1.050419384952543</v>
+        <v>0.9986775621184543</v>
       </c>
       <c r="N7">
-        <v>1.047897033810421</v>
+        <v>1.038233454181811</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.040452101777686</v>
+        <v>1.010604435412824</v>
       </c>
       <c r="D8">
-        <v>1.04160823360937</v>
+        <v>1.023941776045814</v>
       </c>
       <c r="E8">
-        <v>1.038821187599478</v>
+        <v>1.015272352040711</v>
       </c>
       <c r="F8">
-        <v>1.044982737870743</v>
+        <v>0.9728285606815192</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040078018595855</v>
+        <v>1.043103094431466</v>
       </c>
       <c r="J8">
-        <v>1.045420687992709</v>
+        <v>1.031909434639221</v>
       </c>
       <c r="K8">
-        <v>1.044324171008278</v>
+        <v>1.034806919922561</v>
       </c>
       <c r="L8">
-        <v>1.04154484488222</v>
+        <v>1.026249348390622</v>
       </c>
       <c r="M8">
-        <v>1.047689387878882</v>
+        <v>0.9843896147178045</v>
       </c>
       <c r="N8">
-        <v>1.046905305281088</v>
+        <v>1.033374864398075</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.03788002500426</v>
+        <v>0.9971045289667765</v>
       </c>
       <c r="D9">
-        <v>1.03966307897578</v>
+        <v>1.013843596422799</v>
       </c>
       <c r="E9">
-        <v>1.036621948497621</v>
+        <v>1.004278575856836</v>
       </c>
       <c r="F9">
-        <v>1.039681268108246</v>
+        <v>0.9422441671673381</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039232111189705</v>
+        <v>1.037642980408452</v>
       </c>
       <c r="J9">
-        <v>1.043667585701017</v>
+        <v>1.022759949739835</v>
       </c>
       <c r="K9">
-        <v>1.042813753439985</v>
+        <v>1.026715993970568</v>
       </c>
       <c r="L9">
-        <v>1.039782498733305</v>
+        <v>1.017302615478876</v>
       </c>
       <c r="M9">
-        <v>1.042831883695422</v>
+        <v>0.9563493721186342</v>
       </c>
       <c r="N9">
-        <v>1.045149713383058</v>
+        <v>1.024212386180671</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.036162542505394</v>
+        <v>0.9874593874738192</v>
       </c>
       <c r="D10">
-        <v>1.038363488114897</v>
+        <v>1.006629483523986</v>
       </c>
       <c r="E10">
-        <v>1.035154997047915</v>
+        <v>0.9964576397785243</v>
       </c>
       <c r="F10">
-        <v>1.036114796716072</v>
+        <v>0.9190891952282608</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038659091595444</v>
+        <v>1.033626102993892</v>
       </c>
       <c r="J10">
-        <v>1.042493321584806</v>
+        <v>1.016179549645499</v>
       </c>
       <c r="K10">
-        <v>1.041800663424219</v>
+        <v>1.020880063437047</v>
       </c>
       <c r="L10">
-        <v>1.038603617437449</v>
+        <v>1.010891148544973</v>
       </c>
       <c r="M10">
-        <v>1.039559985185463</v>
+        <v>0.9350910027790288</v>
       </c>
       <c r="N10">
-        <v>1.043973781677112</v>
+        <v>1.01762264116342</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.035418158047441</v>
+        <v>0.9831009568774606</v>
       </c>
       <c r="D11">
-        <v>1.037800054986999</v>
+        <v>1.00336888503431</v>
       </c>
       <c r="E11">
-        <v>1.03451957745557</v>
+        <v>0.9929322018566398</v>
       </c>
       <c r="F11">
-        <v>1.034562358698917</v>
+        <v>0.9081888180801315</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038408782638255</v>
+        <v>1.031778273645138</v>
       </c>
       <c r="J11">
-        <v>1.041983510366109</v>
+        <v>1.013194055244459</v>
       </c>
       <c r="K11">
-        <v>1.0413604982412</v>
+        <v>1.018227547545125</v>
       </c>
       <c r="L11">
-        <v>1.038092177874056</v>
+        <v>1.007988648809563</v>
       </c>
       <c r="M11">
-        <v>1.038134800024821</v>
+        <v>0.925078026288612</v>
       </c>
       <c r="N11">
-        <v>1.043463246468008</v>
+        <v>1.014632907017889</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.03514155130806</v>
+        <v>0.9814516160745261</v>
       </c>
       <c r="D12">
-        <v>1.03759066297951</v>
+        <v>1.002134757367324</v>
       </c>
       <c r="E12">
-        <v>1.03428351896046</v>
+        <v>0.9915994406350616</v>
       </c>
       <c r="F12">
-        <v>1.033984449858918</v>
+        <v>0.9039832038521853</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038315475297466</v>
+        <v>1.031073476545467</v>
       </c>
       <c r="J12">
-        <v>1.041793938654699</v>
+        <v>1.012062263432649</v>
       </c>
       <c r="K12">
-        <v>1.041196774792648</v>
+        <v>1.017221172759173</v>
       </c>
       <c r="L12">
-        <v>1.037902057433077</v>
+        <v>1.006889371400325</v>
       </c>
       <c r="M12">
-        <v>1.03760411643116</v>
+        <v>0.9212141624426918</v>
       </c>
       <c r="N12">
-        <v>1.043273405543024</v>
+        <v>1.013499507931888</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.035200889392229</v>
+        <v>0.9818068387956994</v>
       </c>
       <c r="D13">
-        <v>1.037635583196279</v>
+        <v>1.00240056794493</v>
       </c>
       <c r="E13">
-        <v>1.034334155947195</v>
+        <v>0.9918864189786728</v>
       </c>
       <c r="F13">
-        <v>1.034108471165389</v>
+        <v>0.9048929060603965</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038335505082618</v>
+        <v>1.031225532246421</v>
       </c>
       <c r="J13">
-        <v>1.041834611757148</v>
+        <v>1.012306114996838</v>
       </c>
       <c r="K13">
-        <v>1.041231904319524</v>
+        <v>1.017438041057959</v>
       </c>
       <c r="L13">
-        <v>1.037942845694582</v>
+        <v>1.007126168253613</v>
       </c>
       <c r="M13">
-        <v>1.037718009622812</v>
+        <v>0.9220499664755396</v>
       </c>
       <c r="N13">
-        <v>1.043314136405943</v>
+        <v>1.013743705793268</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.035395295896666</v>
+        <v>0.9829652626893668</v>
       </c>
       <c r="D14">
-        <v>1.037782748792849</v>
+        <v>1.003267356895321</v>
       </c>
       <c r="E14">
-        <v>1.0345000655218</v>
+        <v>0.9928225255132526</v>
       </c>
       <c r="F14">
-        <v>1.034514614612179</v>
+        <v>0.9078445519726499</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038401076602039</v>
+        <v>1.031720405181342</v>
       </c>
       <c r="J14">
-        <v>1.041967844509817</v>
+        <v>1.013100982862384</v>
       </c>
       <c r="K14">
-        <v>1.04134696944545</v>
+        <v>1.018144805935804</v>
       </c>
       <c r="L14">
-        <v>1.038076465512744</v>
+        <v>1.007898228275333</v>
       </c>
       <c r="M14">
-        <v>1.038090960434683</v>
+        <v>0.924761746824699</v>
       </c>
       <c r="N14">
-        <v>1.043447558364403</v>
+        <v>1.014539702462355</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.035515061581761</v>
+        <v>0.9836748709626681</v>
       </c>
       <c r="D15">
-        <v>1.037873408008207</v>
+        <v>1.003798284481785</v>
       </c>
       <c r="E15">
-        <v>1.0346022831297</v>
+        <v>0.9933961296365266</v>
       </c>
       <c r="F15">
-        <v>1.034764684187993</v>
+        <v>0.9096415026896332</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038441433375256</v>
+        <v>1.032022797398249</v>
       </c>
       <c r="J15">
-        <v>1.042049906342115</v>
+        <v>1.013587618886141</v>
       </c>
       <c r="K15">
-        <v>1.041417834775916</v>
+        <v>1.018577393018362</v>
       </c>
       <c r="L15">
-        <v>1.038158773275542</v>
+        <v>1.008371042253645</v>
       </c>
       <c r="M15">
-        <v>1.038320573434893</v>
+        <v>0.9264125927780921</v>
       </c>
       <c r="N15">
-        <v>1.043529736733915</v>
+        <v>1.015027029565084</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.036211929731985</v>
+        <v>0.9877445586128624</v>
       </c>
       <c r="D16">
-        <v>1.03840086632527</v>
+        <v>1.006842799790279</v>
       </c>
       <c r="E16">
-        <v>1.03519716292251</v>
+        <v>0.9966884923928018</v>
       </c>
       <c r="F16">
-        <v>1.036217651968789</v>
+        <v>0.9197921947010493</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03867565744883</v>
+        <v>1.033746281446161</v>
       </c>
       <c r="J16">
-        <v>1.042527127461795</v>
+        <v>1.016374626504449</v>
       </c>
       <c r="K16">
-        <v>1.041829844116172</v>
+        <v>1.021053276773854</v>
       </c>
       <c r="L16">
-        <v>1.038637539229849</v>
+        <v>1.011080941250379</v>
       </c>
       <c r="M16">
-        <v>1.03965438902154</v>
+        <v>0.9357366747843646</v>
       </c>
       <c r="N16">
-        <v>1.044007635562324</v>
+        <v>1.017817995053885</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.036648865947264</v>
+        <v>0.9902466500424383</v>
       </c>
       <c r="D17">
-        <v>1.038731537422954</v>
+        <v>1.008714349358152</v>
       </c>
       <c r="E17">
-        <v>1.03557025479105</v>
+        <v>0.9987149794999495</v>
       </c>
       <c r="F17">
-        <v>1.037126853271912</v>
+        <v>0.9259096454204163</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038821992372419</v>
+        <v>1.034796983305724</v>
       </c>
       <c r="J17">
-        <v>1.042826113085447</v>
+        <v>1.018084864460655</v>
       </c>
       <c r="K17">
-        <v>1.042087885837799</v>
+        <v>1.022571290429616</v>
       </c>
       <c r="L17">
-        <v>1.038937593463384</v>
+        <v>1.012745577357175</v>
       </c>
       <c r="M17">
-        <v>1.040488771182284</v>
+        <v>0.9413546823030644</v>
       </c>
       <c r="N17">
-        <v>1.044307045779855</v>
+        <v>1.019530661744155</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.036903655844724</v>
+        <v>0.9916887521731393</v>
       </c>
       <c r="D18">
-        <v>1.038924344743001</v>
+        <v>1.009792978694233</v>
       </c>
       <c r="E18">
-        <v>1.035787851905792</v>
+        <v>0.9998837754742115</v>
       </c>
       <c r="F18">
-        <v>1.037656393256456</v>
+        <v>0.9293955466805652</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038907136167319</v>
+        <v>1.03539953931571</v>
       </c>
       <c r="J18">
-        <v>1.043000376553298</v>
+        <v>1.019069467743311</v>
       </c>
       <c r="K18">
-        <v>1.04223825357136</v>
+        <v>1.023444786828087</v>
       </c>
       <c r="L18">
-        <v>1.039112515996069</v>
+        <v>1.013704515406449</v>
       </c>
       <c r="M18">
-        <v>1.040974641371489</v>
+        <v>0.9445554737915689</v>
       </c>
       <c r="N18">
-        <v>1.044481556721819</v>
+        <v>1.020516663276409</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.036990521254968</v>
+        <v>0.9921776166031778</v>
       </c>
       <c r="D19">
-        <v>1.038990075673603</v>
+        <v>1.010158621568712</v>
       </c>
       <c r="E19">
-        <v>1.035862043395754</v>
+        <v>1.000280126889825</v>
       </c>
       <c r="F19">
-        <v>1.037836821381431</v>
+        <v>0.9305708475127873</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038936132313426</v>
+        <v>1.035603304651765</v>
       </c>
       <c r="J19">
-        <v>1.043059773959926</v>
+        <v>1.019403059886292</v>
       </c>
       <c r="K19">
-        <v>1.042289500795983</v>
+        <v>1.023740662500336</v>
       </c>
       <c r="L19">
-        <v>1.039172144181234</v>
+        <v>1.014029509253149</v>
       </c>
       <c r="M19">
-        <v>1.041140174212024</v>
+        <v>0.9456345558937125</v>
       </c>
       <c r="N19">
-        <v>1.044541038479577</v>
+        <v>1.020850729158496</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.036601993844994</v>
+        <v>0.9899800116154706</v>
       </c>
       <c r="D20">
-        <v>1.038696066546898</v>
+        <v>1.008514911786401</v>
       </c>
       <c r="E20">
-        <v>1.035530227759684</v>
+        <v>0.9984989396172893</v>
       </c>
       <c r="F20">
-        <v>1.037029385742117</v>
+        <v>0.9252619747302351</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.0388063138534</v>
+        <v>1.034685332113676</v>
       </c>
       <c r="J20">
-        <v>1.042794048202028</v>
+        <v>1.017902727162462</v>
       </c>
       <c r="K20">
-        <v>1.042060215278787</v>
+        <v>1.022409671118504</v>
       </c>
       <c r="L20">
-        <v>1.038905410226368</v>
+        <v>1.012568234814449</v>
       </c>
       <c r="M20">
-        <v>1.040399334023512</v>
+        <v>0.9407599413280282</v>
       </c>
       <c r="N20">
-        <v>1.044274935360625</v>
+        <v>1.019348265790108</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.03533805107009</v>
+        <v>0.9826250036584038</v>
       </c>
       <c r="D21">
-        <v>1.037739415189841</v>
+        <v>1.003012766380502</v>
       </c>
       <c r="E21">
-        <v>1.034451210282449</v>
+        <v>0.9925475292793371</v>
       </c>
       <c r="F21">
-        <v>1.034395050733584</v>
+        <v>0.9069799343348922</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038381776596029</v>
+        <v>1.031575206102957</v>
       </c>
       <c r="J21">
-        <v>1.041928616469592</v>
+        <v>1.012867566760915</v>
       </c>
       <c r="K21">
-        <v>1.041313091907189</v>
+        <v>1.017937284899242</v>
       </c>
       <c r="L21">
-        <v>1.038037121939366</v>
+        <v>1.007671480014793</v>
       </c>
       <c r="M21">
-        <v>1.037981172099951</v>
+        <v>0.9239674077703208</v>
       </c>
       <c r="N21">
-        <v>1.043408274615861</v>
+        <v>1.014305954883249</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.034542726436106</v>
+        <v>0.9778225264989522</v>
       </c>
       <c r="D22">
-        <v>1.037137305242152</v>
+        <v>0.9994186322645264</v>
       </c>
       <c r="E22">
-        <v>1.033772583363473</v>
+        <v>0.9886694750988428</v>
       </c>
       <c r="F22">
-        <v>1.03273140370623</v>
+        <v>0.8945596891583817</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038112934100528</v>
+        <v>1.02951160419087</v>
       </c>
       <c r="J22">
-        <v>1.041383297005832</v>
+        <v>1.00956794364557</v>
       </c>
       <c r="K22">
-        <v>1.04084203401678</v>
+        <v>1.015001614967584</v>
       </c>
       <c r="L22">
-        <v>1.037490331275426</v>
+        <v>1.00446878388488</v>
       </c>
       <c r="M22">
-        <v>1.036453199345005</v>
+        <v>0.912555500136023</v>
       </c>
       <c r="N22">
-        <v>1.042862180735914</v>
+        <v>1.011001645924609</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.03496440433654</v>
+        <v>0.9803865058138121</v>
       </c>
       <c r="D23">
-        <v>1.037456555211474</v>
+        <v>1.001337694798674</v>
       </c>
       <c r="E23">
-        <v>1.03413235662877</v>
+        <v>0.9907391581547778</v>
       </c>
       <c r="F23">
-        <v>1.033614044207692</v>
+        <v>0.9012422796435768</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038255635438455</v>
+        <v>1.030616677591216</v>
       </c>
       <c r="J23">
-        <v>1.04167249472397</v>
+        <v>1.011330777000268</v>
       </c>
       <c r="K23">
-        <v>1.04109187592757</v>
+        <v>1.016570499930432</v>
       </c>
       <c r="L23">
-        <v>1.037780277985531</v>
+        <v>1.006179210324057</v>
       </c>
       <c r="M23">
-        <v>1.037263938365725</v>
+        <v>0.9186958182806781</v>
       </c>
       <c r="N23">
-        <v>1.043151789147983</v>
+        <v>1.012766982704869</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.036623173539706</v>
+        <v>0.9901005473596156</v>
       </c>
       <c r="D24">
-        <v>1.038712094517966</v>
+        <v>1.008605069079947</v>
       </c>
       <c r="E24">
-        <v>1.035548314317663</v>
+        <v>0.9985965994201536</v>
       </c>
       <c r="F24">
-        <v>1.037073429537284</v>
+        <v>0.9255548817446715</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038813398952981</v>
+        <v>1.034735814158587</v>
       </c>
       <c r="J24">
-        <v>1.042808537343936</v>
+        <v>1.017985067011442</v>
       </c>
       <c r="K24">
-        <v>1.042072718857397</v>
+        <v>1.022482736648031</v>
       </c>
       <c r="L24">
-        <v>1.038919952736687</v>
+        <v>1.012648405249964</v>
       </c>
       <c r="M24">
-        <v>1.040439749329574</v>
+        <v>0.9410289126590357</v>
       </c>
       <c r="N24">
-        <v>1.044289445078776</v>
+        <v>1.019430722571118</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.038545442926084</v>
+        <v>1.000699789574556</v>
       </c>
       <c r="D25">
-        <v>1.040166436745428</v>
+        <v>1.016532636774637</v>
       </c>
       <c r="E25">
-        <v>1.037190635983209</v>
+        <v>1.007200893141266</v>
       </c>
       <c r="F25">
-        <v>1.041057331665773</v>
+        <v>0.9505779414439668</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039452389025458</v>
+        <v>1.039115512878511</v>
       </c>
       <c r="J25">
-        <v>1.044121769436275</v>
+        <v>1.025203625937997</v>
       </c>
       <c r="K25">
-        <v>1.04320530649318</v>
+        <v>1.02887961362082</v>
       </c>
       <c r="L25">
-        <v>1.040238801297047</v>
+        <v>1.019688443593115</v>
       </c>
       <c r="M25">
-        <v>1.044093429798098</v>
+        <v>0.9639951954617781</v>
       </c>
       <c r="N25">
-        <v>1.045604542111316</v>
+        <v>1.026659532679329</v>
       </c>
     </row>
   </sheetData>
